--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1468.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1468.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.294181651355722</v>
+        <v>1.137151122093201</v>
       </c>
       <c r="B1">
-        <v>1.620301070766916</v>
+        <v>3.209794282913208</v>
       </c>
       <c r="C1">
-        <v>2.353309838127315</v>
+        <v>3.562406301498413</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.942654132843018</v>
       </c>
       <c r="E1">
-        <v>1.186715494484085</v>
+        <v>1.207491874694824</v>
       </c>
     </row>
   </sheetData>
